--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.57272562743135</v>
+        <v>9.663483666666666</v>
       </c>
       <c r="H2">
-        <v>9.57272562743135</v>
+        <v>28.990451</v>
       </c>
       <c r="I2">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714015</v>
       </c>
       <c r="J2">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714016</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.4707290571619</v>
+        <v>18.444833</v>
       </c>
       <c r="N2">
-        <v>17.4707290571619</v>
+        <v>55.33449900000001</v>
       </c>
       <c r="O2">
-        <v>0.5286655744491404</v>
+        <v>0.529296397589589</v>
       </c>
       <c r="P2">
-        <v>0.5286655744491404</v>
+        <v>0.5292963975895891</v>
       </c>
       <c r="Q2">
-        <v>167.2424957754033</v>
+        <v>178.2413424298944</v>
       </c>
       <c r="R2">
-        <v>167.2424957754033</v>
+        <v>1604.172081869049</v>
       </c>
       <c r="S2">
-        <v>0.2364781708854857</v>
+        <v>0.2208647196299089</v>
       </c>
       <c r="T2">
-        <v>0.2364781708854857</v>
+        <v>0.2208647196299089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.57272562743135</v>
+        <v>9.663483666666666</v>
       </c>
       <c r="H3">
-        <v>9.57272562743135</v>
+        <v>28.990451</v>
       </c>
       <c r="I3">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714015</v>
       </c>
       <c r="J3">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714016</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.00031381036327</v>
+        <v>8.028767999999999</v>
       </c>
       <c r="N3">
-        <v>8.00031381036327</v>
+        <v>24.086304</v>
       </c>
       <c r="O3">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="P3">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="Q3">
-        <v>76.58480903995742</v>
+        <v>77.58586843145599</v>
       </c>
       <c r="R3">
-        <v>76.58480903995742</v>
+        <v>698.2728158831039</v>
       </c>
       <c r="S3">
-        <v>0.1082896752731127</v>
+        <v>0.09613920566771106</v>
       </c>
       <c r="T3">
-        <v>0.1082896752731127</v>
+        <v>0.09613920566771107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.57272562743135</v>
+        <v>9.663483666666666</v>
       </c>
       <c r="H4">
-        <v>9.57272562743135</v>
+        <v>28.990451</v>
       </c>
       <c r="I4">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714015</v>
       </c>
       <c r="J4">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714016</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.5758016813488</v>
+        <v>8.374233</v>
       </c>
       <c r="N4">
-        <v>7.5758016813488</v>
+        <v>25.122699</v>
       </c>
       <c r="O4">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194523</v>
       </c>
       <c r="P4">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194524</v>
       </c>
       <c r="Q4">
-        <v>72.52107090338517</v>
+        <v>80.92426381636099</v>
       </c>
       <c r="R4">
-        <v>72.52107090338517</v>
+        <v>728.318374347249</v>
       </c>
       <c r="S4">
-        <v>0.1025436155946877</v>
+        <v>0.1002759213737815</v>
       </c>
       <c r="T4">
-        <v>0.1025436155946877</v>
+        <v>0.1002759213737815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.21286306852461</v>
+        <v>5.297564333333334</v>
       </c>
       <c r="H5">
-        <v>5.21286306852461</v>
+        <v>15.892693</v>
       </c>
       <c r="I5">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="J5">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.4707290571619</v>
+        <v>18.444833</v>
       </c>
       <c r="N5">
-        <v>17.4707290571619</v>
+        <v>55.33449900000001</v>
       </c>
       <c r="O5">
-        <v>0.5286655744491404</v>
+        <v>0.529296397589589</v>
       </c>
       <c r="P5">
-        <v>0.5286655744491404</v>
+        <v>0.5292963975895891</v>
       </c>
       <c r="Q5">
-        <v>91.07251828227905</v>
+        <v>97.71268943508969</v>
       </c>
       <c r="R5">
-        <v>91.07251828227905</v>
+        <v>879.4142049158072</v>
       </c>
       <c r="S5">
-        <v>0.1287750606774654</v>
+        <v>0.1210790126586584</v>
       </c>
       <c r="T5">
-        <v>0.1287750606774654</v>
+        <v>0.1210790126586584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.21286306852461</v>
+        <v>5.297564333333334</v>
       </c>
       <c r="H6">
-        <v>5.21286306852461</v>
+        <v>15.892693</v>
       </c>
       <c r="I6">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="J6">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.00031381036327</v>
+        <v>8.028767999999999</v>
       </c>
       <c r="N6">
-        <v>8.00031381036327</v>
+        <v>24.086304</v>
       </c>
       <c r="O6">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="P6">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="Q6">
-        <v>41.70454039865009</v>
+        <v>42.532914997408</v>
       </c>
       <c r="R6">
-        <v>41.70454039865009</v>
+        <v>382.796234976672</v>
       </c>
       <c r="S6">
-        <v>0.05896954231260088</v>
+        <v>0.05270393623544498</v>
       </c>
       <c r="T6">
-        <v>0.05896954231260088</v>
+        <v>0.05270393623544498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.21286306852461</v>
+        <v>5.297564333333334</v>
       </c>
       <c r="H7">
-        <v>5.21286306852461</v>
+        <v>15.892693</v>
       </c>
       <c r="I7">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="J7">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.5758016813488</v>
+        <v>8.374233</v>
       </c>
       <c r="N7">
-        <v>7.5758016813488</v>
+        <v>25.122699</v>
       </c>
       <c r="O7">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194523</v>
       </c>
       <c r="P7">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194524</v>
       </c>
       <c r="Q7">
-        <v>39.4916167991698</v>
+        <v>44.363038059823</v>
       </c>
       <c r="R7">
-        <v>39.4916167991698</v>
+        <v>399.267342538407</v>
       </c>
       <c r="S7">
-        <v>0.05584050430890358</v>
+        <v>0.05497170201614484</v>
       </c>
       <c r="T7">
-        <v>0.05584050430890358</v>
+        <v>0.05497170201614485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.61499332783124</v>
+        <v>8.197232333333334</v>
       </c>
       <c r="H8">
-        <v>6.61499332783124</v>
+        <v>24.591697</v>
       </c>
       <c r="I8">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="J8">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.4707290571619</v>
+        <v>18.444833</v>
       </c>
       <c r="N8">
-        <v>17.4707290571619</v>
+        <v>55.33449900000001</v>
       </c>
       <c r="O8">
-        <v>0.5286655744491404</v>
+        <v>0.529296397589589</v>
       </c>
       <c r="P8">
-        <v>0.5286655744491404</v>
+        <v>0.5292963975895891</v>
       </c>
       <c r="Q8">
-        <v>115.5687561454733</v>
+        <v>151.1965814505337</v>
       </c>
       <c r="R8">
-        <v>115.5687561454733</v>
+        <v>1360.769233054803</v>
       </c>
       <c r="S8">
-        <v>0.1634123428861893</v>
+        <v>0.1873526653010218</v>
       </c>
       <c r="T8">
-        <v>0.1634123428861893</v>
+        <v>0.1873526653010218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.61499332783124</v>
+        <v>8.197232333333334</v>
       </c>
       <c r="H9">
-        <v>6.61499332783124</v>
+        <v>24.591697</v>
       </c>
       <c r="I9">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="J9">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.00031381036327</v>
+        <v>8.028767999999999</v>
       </c>
       <c r="N9">
-        <v>8.00031381036327</v>
+        <v>24.086304</v>
       </c>
       <c r="O9">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="P9">
-        <v>0.2420900972415495</v>
+        <v>0.2303950368909585</v>
       </c>
       <c r="Q9">
-        <v>52.92202247610916</v>
+        <v>65.813676646432</v>
       </c>
       <c r="R9">
-        <v>52.92202247610916</v>
+        <v>592.323089817888</v>
       </c>
       <c r="S9">
-        <v>0.07483087965583594</v>
+        <v>0.08155189498780248</v>
       </c>
       <c r="T9">
-        <v>0.07483087965583594</v>
+        <v>0.08155189498780248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.61499332783124</v>
+        <v>8.197232333333334</v>
       </c>
       <c r="H10">
-        <v>6.61499332783124</v>
+        <v>24.591697</v>
       </c>
       <c r="I10">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="J10">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.5758016813488</v>
+        <v>8.374233</v>
       </c>
       <c r="N10">
-        <v>7.5758016813488</v>
+        <v>25.122699</v>
       </c>
       <c r="O10">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194523</v>
       </c>
       <c r="P10">
-        <v>0.2292443283093101</v>
+        <v>0.2403085655194524</v>
       </c>
       <c r="Q10">
-        <v>50.113877575095</v>
+        <v>68.645533514467</v>
       </c>
       <c r="R10">
-        <v>50.113877575095</v>
+        <v>617.809801630203</v>
       </c>
       <c r="S10">
-        <v>0.07086020840571881</v>
+        <v>0.085060942129526</v>
       </c>
       <c r="T10">
-        <v>0.07086020840571881</v>
+        <v>0.085060942129526</v>
       </c>
     </row>
   </sheetData>
